--- a/data/input/absenteeism_data_4.xlsx
+++ b/data/input/absenteeism_data_4.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49956</v>
+        <v>86814</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Breno Azevedo</t>
+          <t>Sr. Enzo Gabriel Peixoto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,113 +490,113 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>11023.82</v>
+        <v>4726.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49724</v>
+        <v>8293</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emanuella Moreira</t>
+          <t>Eloah da Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>7197.09</v>
+        <v>2690.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99064</v>
+        <v>17893</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pedro da Mata</t>
+          <t>Luana Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>5944.47</v>
+        <v>3516.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77436</v>
+        <v>66489</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Igor Cardoso</t>
+          <t>Rebeca Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>10510.87</v>
+        <v>4900.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56215</v>
+        <v>39123</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Beatriz Cardoso</t>
+          <t>Cauê Vieira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,162 +606,162 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>3874.15</v>
+        <v>8295.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45319</v>
+        <v>26407</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Dias</t>
+          <t>Eduarda Pinto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>6340.72</v>
+        <v>3622.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>72480</v>
+        <v>77303</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Catarina Ramos</t>
+          <t>Isabella da Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>9993.08</v>
+        <v>10906.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97058</v>
+        <v>2426</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kaique Rezende</t>
+          <t>Sr. Guilherme Nascimento</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>7147.18</v>
+        <v>5787.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91243</v>
+        <v>50628</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alícia Moraes</t>
+          <t>Bárbara Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>11422.72</v>
+        <v>4574.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33936</v>
+        <v>98196</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yasmin Rocha</t>
+          <t>Sr. Thiago Lima</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>2733.06</v>
+        <v>10444.84</v>
       </c>
     </row>
   </sheetData>
